--- a/画面設計/【画面設計】定数一覧.xlsx
+++ b/画面設計/【画面設計】定数一覧.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="9lyn/TeO/iy7S9ZGw0qSnKNgOo3g76BksenH4lz0xaE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="UbZoja70MQd0nPLA7U6vPDmlUBDGZZtnNdcoN/Y14S0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="121">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -347,6 +347,39 @@
   </si>
   <si>
     <t>あなたの好きな番組は？</t>
+  </si>
+  <si>
+    <t>難易度</t>
+  </si>
+  <si>
+    <t>LEVEL_1</t>
+  </si>
+  <si>
+    <t>★</t>
+  </si>
+  <si>
+    <t>LEVEL_2</t>
+  </si>
+  <si>
+    <t>★★</t>
+  </si>
+  <si>
+    <t>LEVEL_3</t>
+  </si>
+  <si>
+    <t>★★★</t>
+  </si>
+  <si>
+    <t>LEVEL_4</t>
+  </si>
+  <si>
+    <t>★★★★</t>
+  </si>
+  <si>
+    <t>LEVEL_5</t>
+  </si>
+  <si>
+    <t>★★★★★</t>
   </si>
 </sst>
 </file>
@@ -2726,14 +2759,80 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" ht="18.75" customHeight="1"/>
-    <row r="64" ht="18.75" customHeight="1"/>
-    <row r="65" ht="18.75" customHeight="1"/>
-    <row r="66" ht="18.75" customHeight="1"/>
-    <row r="67" ht="18.75" customHeight="1"/>
-    <row r="68" ht="18.75" customHeight="1"/>
-    <row r="69" ht="18.75" customHeight="1"/>
-    <row r="70" ht="18.75" customHeight="1"/>
+    <row r="63" ht="18.75" customHeight="1">
+      <c r="D63" s="22"/>
+    </row>
+    <row r="64" ht="18.75" customHeight="1">
+      <c r="D64" s="22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" ht="18.75" customHeight="1">
+      <c r="D65" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" ht="18.75" customHeight="1">
+      <c r="D66" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" ht="18.75" customHeight="1">
+      <c r="D67" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" ht="18.75" customHeight="1">
+      <c r="D68" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E68" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" ht="18.75" customHeight="1">
+      <c r="D69" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" ht="18.75" customHeight="1">
+      <c r="D70" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="71" ht="18.75" customHeight="1"/>
     <row r="72" ht="18.75" customHeight="1"/>
     <row r="73" ht="18.75" customHeight="1"/>
@@ -3663,6 +3762,7 @@
     <row r="997" ht="18.75" customHeight="1"/>
     <row r="998" ht="18.75" customHeight="1"/>
     <row r="999" ht="18.75" customHeight="1"/>
+    <row r="1000" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C2"/>

--- a/画面設計/【画面設計】定数一覧.xlsx
+++ b/画面設計/【画面設計】定数一覧.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="129">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -40,6 +40,9 @@
     <t>更新者</t>
   </si>
   <si>
+    <t>ConstList</t>
+  </si>
+  <si>
     <t>定数一覧</t>
   </si>
   <si>
@@ -380,6 +383,27 @@
   </si>
   <si>
     <t>★★★★★</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>GENDERLESS</t>
+  </si>
+  <si>
+    <t>未設定</t>
+  </si>
+  <si>
+    <t>GENDER_MAN</t>
+  </si>
+  <si>
+    <t>男性</t>
+  </si>
+  <si>
+    <t>GENDER_WOMAN</t>
+  </si>
+  <si>
+    <t>女性</t>
   </si>
 </sst>
 </file>
@@ -540,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -570,9 +594,6 @@
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
@@ -605,7 +626,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -904,18 +925,20 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12">
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="11">
         <v>45683.0</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="G2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -936,170 +959,170 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
+      <c r="E4" s="15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>1.0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>45683.0</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" ht="18.75" customHeight="1"/>
     <row r="30" ht="18.75" customHeight="1"/>
@@ -2107,10 +2130,10 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2148,19 +2171,21 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="11" t="s">
+      <c r="D2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="12">
+      <c r="E2" s="19"/>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="11">
         <v>45683.0</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
+      <c r="H2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -2181,664 +2206,708 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="D4" s="22" t="s">
-        <v>14</v>
+      <c r="D4" s="21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="D5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>17</v>
       </c>
+      <c r="F5" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="D6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="D6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="24">
         <v>1.0</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>19</v>
+      <c r="F6" s="25" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="D7" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="25">
+      <c r="D7" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="24">
         <v>2.0</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>21</v>
+      <c r="F7" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="D8" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="25">
+      <c r="D8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="24">
         <v>3.0</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>23</v>
+      <c r="F8" s="25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="D9" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="25">
+      <c r="D9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="24">
         <v>4.0</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>25</v>
+      <c r="F9" s="25" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1"/>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="D11" s="22" t="s">
-        <v>26</v>
+      <c r="D11" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="D12" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>17</v>
       </c>
+      <c r="F12" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="D13" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="25">
+      <c r="D13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="24">
         <v>1.0</v>
       </c>
-      <c r="F13" s="26" t="s">
-        <v>28</v>
+      <c r="F13" s="25" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="D14" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="25">
+      <c r="D14" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="24">
         <v>2.0</v>
       </c>
-      <c r="F14" s="26" t="s">
-        <v>30</v>
+      <c r="F14" s="25" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="D15" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="25">
+      <c r="D15" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="24">
         <v>3.0</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>32</v>
+      <c r="F15" s="25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="D16" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="25">
+      <c r="D16" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="24">
         <v>4.0</v>
       </c>
-      <c r="F16" s="26" t="s">
-        <v>34</v>
+      <c r="F16" s="25" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="D17" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="25">
+      <c r="D17" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="24">
         <v>5.0</v>
       </c>
-      <c r="F17" s="26" t="s">
-        <v>36</v>
+      <c r="F17" s="25" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="D18" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="25">
+      <c r="D18" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="24">
         <v>6.0</v>
       </c>
-      <c r="F18" s="26" t="s">
-        <v>38</v>
+      <c r="F18" s="25" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="D19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="25">
+      <c r="D19" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="24">
         <v>7.0</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>40</v>
+      <c r="F19" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="D20" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="25">
+      <c r="D20" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="24">
         <v>8.0</v>
       </c>
-      <c r="F20" s="26" t="s">
-        <v>42</v>
+      <c r="F20" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="D21" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="25">
+      <c r="D21" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="24">
         <v>9.0</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>44</v>
+      <c r="F21" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1"/>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="D24" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="D25" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="D26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="D27" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="D28" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="D29" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="24">
+        <v>5.0</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="D30" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="24">
+        <v>6.0</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="D31" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="D32" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="24">
+        <v>8.0</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="D33" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="24">
+        <v>9.0</v>
+      </c>
+      <c r="F33" s="25" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="D24" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="D25" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="D26" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="25">
-        <v>2.0</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" ht="18.75" customHeight="1">
-      <c r="D27" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" ht="18.75" customHeight="1">
-      <c r="D28" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" ht="18.75" customHeight="1">
-      <c r="D29" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="25">
-        <v>5.0</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" ht="18.75" customHeight="1">
-      <c r="D30" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="25">
-        <v>6.0</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="D31" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" ht="18.75" customHeight="1">
-      <c r="D32" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" s="25">
-        <v>8.0</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" ht="18.75" customHeight="1">
-      <c r="D33" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="25">
-        <v>9.0</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1"/>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="D35" s="22" t="s">
-        <v>62</v>
+      <c r="D35" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="D36" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="23" t="s">
+      <c r="D36" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="E36" s="22" t="s">
         <v>17</v>
       </c>
+      <c r="F36" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="D37" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="25">
+      <c r="D37" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="24">
         <v>1.0</v>
       </c>
-      <c r="F37" s="26" t="s">
-        <v>64</v>
+      <c r="F37" s="25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="D38" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="25">
+      <c r="D38" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="24">
         <v>2.0</v>
       </c>
-      <c r="F38" s="26" t="s">
-        <v>66</v>
+      <c r="F38" s="25" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="D39" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="25">
+      <c r="D39" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="24">
         <v>3.0</v>
       </c>
-      <c r="F39" s="26" t="s">
-        <v>68</v>
+      <c r="F39" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="D40" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="25">
+      <c r="D40" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="24">
         <v>4.0</v>
       </c>
-      <c r="F40" s="26" t="s">
-        <v>70</v>
+      <c r="F40" s="25" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="D41" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="25">
+      <c r="D41" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="24">
         <v>5.0</v>
       </c>
-      <c r="F41" s="26" t="s">
-        <v>72</v>
+      <c r="F41" s="25" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="D42" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="25">
+      <c r="D42" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="24">
         <v>6.0</v>
       </c>
-      <c r="F42" s="29" t="s">
-        <v>74</v>
+      <c r="F42" s="28" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="D43" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="25">
+      <c r="D43" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="24">
         <v>7.0</v>
       </c>
-      <c r="F43" s="29" t="s">
-        <v>76</v>
+      <c r="F43" s="28" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1">
-      <c r="D44" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="25">
+      <c r="D44" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="24">
         <v>8.0</v>
       </c>
-      <c r="F44" s="29" t="s">
-        <v>78</v>
+      <c r="F44" s="28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="D45" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="25">
+      <c r="D45" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="24">
         <v>9.0</v>
       </c>
-      <c r="F45" s="29" t="s">
-        <v>80</v>
+      <c r="F45" s="28" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="46" ht="18.75" customHeight="1">
-      <c r="D46" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="25">
+      <c r="D46" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="24">
         <v>10.0</v>
       </c>
-      <c r="F46" s="29" t="s">
-        <v>82</v>
+      <c r="F46" s="28" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="D47" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E47" s="25">
+      <c r="D47" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="24">
         <v>11.0</v>
       </c>
-      <c r="F47" s="29" t="s">
-        <v>84</v>
+      <c r="F47" s="28" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="48" ht="18.75" customHeight="1">
-      <c r="D48" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="25">
+      <c r="D48" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="24">
         <v>12.0</v>
       </c>
-      <c r="F48" s="29" t="s">
-        <v>86</v>
+      <c r="F48" s="28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="49" ht="18.75" customHeight="1">
-      <c r="D49" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="25">
+      <c r="D49" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="24">
         <v>13.0</v>
       </c>
-      <c r="F49" s="29" t="s">
-        <v>88</v>
+      <c r="F49" s="28" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="50" ht="18.75" customHeight="1">
-      <c r="D50" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="25">
+      <c r="D50" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="24">
         <v>14.0</v>
       </c>
-      <c r="F50" s="29" t="s">
-        <v>90</v>
+      <c r="F50" s="28" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="51" ht="18.75" customHeight="1">
-      <c r="D51" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="25">
+      <c r="D51" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="24">
         <v>15.0</v>
       </c>
-      <c r="F51" s="29" t="s">
-        <v>92</v>
+      <c r="F51" s="28" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="52" ht="18.75" customHeight="1">
-      <c r="D52" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="25">
+      <c r="D52" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="24">
         <v>16.0</v>
       </c>
-      <c r="F52" s="29" t="s">
-        <v>94</v>
+      <c r="F52" s="28" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="53" ht="18.75" customHeight="1">
-      <c r="D53" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="25">
+      <c r="D53" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="24">
         <v>17.0</v>
       </c>
-      <c r="F53" s="29" t="s">
-        <v>96</v>
+      <c r="F53" s="28" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="54" ht="18.75" customHeight="1">
-      <c r="D54" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" s="25">
+      <c r="D54" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="24">
         <v>18.0</v>
       </c>
-      <c r="F54" s="29" t="s">
-        <v>98</v>
+      <c r="F54" s="28" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="55" ht="18.75" customHeight="1">
-      <c r="D55" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="25">
+      <c r="D55" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="24">
         <v>19.0</v>
       </c>
-      <c r="F55" s="29" t="s">
-        <v>100</v>
+      <c r="F55" s="28" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="56" ht="18.75" customHeight="1">
-      <c r="D56" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" s="25">
+      <c r="D56" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="24">
         <v>20.0</v>
       </c>
-      <c r="F56" s="29" t="s">
-        <v>102</v>
+      <c r="F56" s="28" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="57" ht="18.75" customHeight="1"/>
     <row r="58" ht="18.75" customHeight="1">
-      <c r="D58" s="22" t="s">
-        <v>103</v>
+      <c r="D58" s="21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="59" ht="18.75" customHeight="1">
-      <c r="D59" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="23" t="s">
+      <c r="D59" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="E59" s="22" t="s">
         <v>17</v>
       </c>
+      <c r="F59" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="60" ht="18.75" customHeight="1">
-      <c r="D60" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="25">
+      <c r="D60" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="24">
         <v>1.0</v>
       </c>
-      <c r="F60" s="25" t="s">
-        <v>105</v>
+      <c r="F60" s="24" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="61" ht="18.75" customHeight="1">
-      <c r="D61" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="25">
+      <c r="D61" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="24">
         <v>2.0</v>
       </c>
-      <c r="F61" s="25" t="s">
-        <v>107</v>
+      <c r="F61" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="62" ht="18.75" customHeight="1">
-      <c r="D62" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E62" s="25">
+      <c r="D62" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="24">
         <v>3.0</v>
       </c>
-      <c r="F62" s="25" t="s">
-        <v>109</v>
+      <c r="F62" s="24" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="63" ht="18.75" customHeight="1">
-      <c r="D63" s="22"/>
+      <c r="D63" s="21"/>
     </row>
     <row r="64" ht="18.75" customHeight="1">
-      <c r="D64" s="22" t="s">
-        <v>110</v>
+      <c r="D64" s="21" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="65" ht="18.75" customHeight="1">
-      <c r="D65" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="23" t="s">
+      <c r="D65" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="23" t="s">
+      <c r="E65" s="22" t="s">
         <v>17</v>
       </c>
+      <c r="F65" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="66" ht="18.75" customHeight="1">
-      <c r="D66" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E66" s="25">
+      <c r="D66" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="24">
         <v>1.0</v>
       </c>
-      <c r="F66" s="25" t="s">
-        <v>112</v>
+      <c r="F66" s="24" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="67" ht="18.75" customHeight="1">
-      <c r="D67" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E67" s="25">
+      <c r="D67" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="24">
         <v>2.0</v>
       </c>
-      <c r="F67" s="25" t="s">
-        <v>114</v>
+      <c r="F67" s="24" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="68" ht="18.75" customHeight="1">
-      <c r="D68" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" s="25">
+      <c r="D68" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68" s="24">
         <v>3.0</v>
       </c>
-      <c r="F68" s="25" t="s">
-        <v>116</v>
+      <c r="F68" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="69" ht="18.75" customHeight="1">
-      <c r="D69" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E69" s="25">
+      <c r="D69" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" s="24">
         <v>4.0</v>
       </c>
-      <c r="F69" s="25" t="s">
-        <v>118</v>
+      <c r="F69" s="24" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="70" ht="18.75" customHeight="1">
-      <c r="D70" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E70" s="25">
+      <c r="D70" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" s="24">
         <v>5.0</v>
       </c>
-      <c r="F70" s="25" t="s">
-        <v>120</v>
+      <c r="F70" s="24" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="71" ht="18.75" customHeight="1"/>
-    <row r="72" ht="18.75" customHeight="1"/>
-    <row r="73" ht="18.75" customHeight="1"/>
-    <row r="74" ht="18.75" customHeight="1"/>
-    <row r="75" ht="18.75" customHeight="1"/>
-    <row r="76" ht="18.75" customHeight="1"/>
+    <row r="72" ht="18.75" customHeight="1">
+      <c r="D72" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" ht="18.75" customHeight="1">
+      <c r="D73" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" ht="18.75" customHeight="1">
+      <c r="D74" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" ht="18.75" customHeight="1">
+      <c r="D75" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E75" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" ht="18.75" customHeight="1">
+      <c r="D76" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E76" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
     <row r="77" ht="18.75" customHeight="1"/>
     <row r="78" ht="18.75" customHeight="1"/>
     <row r="79" ht="18.75" customHeight="1"/>

--- a/画面設計/【画面設計】定数一覧.xlsx
+++ b/画面設計/【画面設計】定数一覧.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="UbZoja70MQd0nPLA7U6vPDmlUBDGZZtnNdcoN/Y14S0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="B94NWj8gsnDD9ksfjTRks7XXxLWW4wcEoaVq3KhhkEo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="131">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>卵料理</t>
+  </si>
+  <si>
+    <t>GENRE_MEAT</t>
+  </si>
+  <si>
+    <t>肉料理</t>
   </si>
   <si>
     <t>GENRE_OTHERS</t>
@@ -413,7 +419,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -453,6 +459,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -564,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -646,7 +657,16 @@
     <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2184,8 +2204,12 @@
       <c r="H2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
+      <c r="I2" s="11">
+        <v>45817.0</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -2371,158 +2395,158 @@
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="28">
         <v>9.0</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" ht="18.75" customHeight="1"/>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="D23" s="21" t="s">
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="D22" s="27" t="s">
         <v>46</v>
       </c>
-    </row>
+      <c r="E22" s="28">
+        <v>10.0</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1"/>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="D25" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E25" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F25" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="D25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="24">
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="D26" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="24">
         <v>1.0</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="D26" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="24">
-        <v>2.0</v>
       </c>
       <c r="F26" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="30" t="s">
         <v>51</v>
       </c>
       <c r="E27" s="24">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="30" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="24">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="30" t="s">
         <v>55</v>
       </c>
       <c r="E29" s="24">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="D30" s="27" t="s">
-        <v>47</v>
+      <c r="D30" s="30" t="s">
+        <v>57</v>
       </c>
       <c r="E30" s="24">
+        <v>5.0</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="D31" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="24">
         <v>6.0</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="D31" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="24">
-        <v>7.0</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="30" t="s">
         <v>60</v>
       </c>
       <c r="E32" s="24">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="F32" s="25" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="30" t="s">
         <v>62</v>
       </c>
       <c r="E33" s="24">
+        <v>8.0</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="D34" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="24">
         <v>9.0</v>
       </c>
-      <c r="F33" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" ht="18.75" customHeight="1"/>
-    <row r="35" ht="18.75" customHeight="1">
-      <c r="D35" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
+      <c r="F34" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" ht="18.75" customHeight="1"/>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1">
+      <c r="D37" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E37" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F37" s="22" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="37" ht="18.75" customHeight="1">
-      <c r="D37" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1">
@@ -2530,7 +2554,7 @@
         <v>66</v>
       </c>
       <c r="E38" s="24">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F38" s="25" t="s">
         <v>67</v>
@@ -2541,7 +2565,7 @@
         <v>68</v>
       </c>
       <c r="E39" s="24">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F39" s="25" t="s">
         <v>69</v>
@@ -2552,7 +2576,7 @@
         <v>70</v>
       </c>
       <c r="E40" s="24">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F40" s="25" t="s">
         <v>71</v>
@@ -2563,7 +2587,7 @@
         <v>72</v>
       </c>
       <c r="E41" s="24">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F41" s="25" t="s">
         <v>73</v>
@@ -2574,9 +2598,9 @@
         <v>74</v>
       </c>
       <c r="E42" s="24">
-        <v>6.0</v>
-      </c>
-      <c r="F42" s="28" t="s">
+        <v>5.0</v>
+      </c>
+      <c r="F42" s="25" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2585,9 +2609,9 @@
         <v>76</v>
       </c>
       <c r="E43" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="F43" s="28" t="s">
+        <v>6.0</v>
+      </c>
+      <c r="F43" s="31" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2596,9 +2620,9 @@
         <v>78</v>
       </c>
       <c r="E44" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="F44" s="28" t="s">
+        <v>7.0</v>
+      </c>
+      <c r="F44" s="31" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2607,9 +2631,9 @@
         <v>80</v>
       </c>
       <c r="E45" s="24">
-        <v>9.0</v>
-      </c>
-      <c r="F45" s="28" t="s">
+        <v>8.0</v>
+      </c>
+      <c r="F45" s="31" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2618,9 +2642,9 @@
         <v>82</v>
       </c>
       <c r="E46" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="F46" s="28" t="s">
+        <v>9.0</v>
+      </c>
+      <c r="F46" s="31" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2629,9 +2653,9 @@
         <v>84</v>
       </c>
       <c r="E47" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="F47" s="28" t="s">
+        <v>10.0</v>
+      </c>
+      <c r="F47" s="31" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2640,9 +2664,9 @@
         <v>86</v>
       </c>
       <c r="E48" s="24">
-        <v>12.0</v>
-      </c>
-      <c r="F48" s="28" t="s">
+        <v>11.0</v>
+      </c>
+      <c r="F48" s="31" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2651,9 +2675,9 @@
         <v>88</v>
       </c>
       <c r="E49" s="24">
-        <v>13.0</v>
-      </c>
-      <c r="F49" s="28" t="s">
+        <v>12.0</v>
+      </c>
+      <c r="F49" s="31" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2662,9 +2686,9 @@
         <v>90</v>
       </c>
       <c r="E50" s="24">
-        <v>14.0</v>
-      </c>
-      <c r="F50" s="28" t="s">
+        <v>13.0</v>
+      </c>
+      <c r="F50" s="31" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2673,9 +2697,9 @@
         <v>92</v>
       </c>
       <c r="E51" s="24">
-        <v>15.0</v>
-      </c>
-      <c r="F51" s="28" t="s">
+        <v>14.0</v>
+      </c>
+      <c r="F51" s="31" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2684,9 +2708,9 @@
         <v>94</v>
       </c>
       <c r="E52" s="24">
-        <v>16.0</v>
-      </c>
-      <c r="F52" s="28" t="s">
+        <v>15.0</v>
+      </c>
+      <c r="F52" s="31" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2695,9 +2719,9 @@
         <v>96</v>
       </c>
       <c r="E53" s="24">
-        <v>17.0</v>
-      </c>
-      <c r="F53" s="28" t="s">
+        <v>16.0</v>
+      </c>
+      <c r="F53" s="31" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2706,9 +2730,9 @@
         <v>98</v>
       </c>
       <c r="E54" s="24">
-        <v>18.0</v>
-      </c>
-      <c r="F54" s="28" t="s">
+        <v>17.0</v>
+      </c>
+      <c r="F54" s="31" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2717,9 +2741,9 @@
         <v>100</v>
       </c>
       <c r="E55" s="24">
-        <v>19.0</v>
-      </c>
-      <c r="F55" s="28" t="s">
+        <v>18.0</v>
+      </c>
+      <c r="F55" s="31" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2728,38 +2752,38 @@
         <v>102</v>
       </c>
       <c r="E56" s="24">
+        <v>19.0</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" ht="18.75" customHeight="1">
+      <c r="D57" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="24">
         <v>20.0</v>
       </c>
-      <c r="F56" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" ht="18.75" customHeight="1"/>
-    <row r="58" ht="18.75" customHeight="1">
-      <c r="D58" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
+      <c r="F57" s="31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" ht="18.75" customHeight="1"/>
     <row r="59" ht="18.75" customHeight="1">
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" ht="18.75" customHeight="1">
+      <c r="D60" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E60" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="F60" s="22" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="60" ht="18.75" customHeight="1">
-      <c r="D60" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E60" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="F60" s="24" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="61" ht="18.75" customHeight="1">
@@ -2767,7 +2791,7 @@
         <v>107</v>
       </c>
       <c r="E61" s="24">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F61" s="24" t="s">
         <v>108</v>
@@ -2778,40 +2802,40 @@
         <v>109</v>
       </c>
       <c r="E62" s="24">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F62" s="24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="63" ht="18.75" customHeight="1">
-      <c r="D63" s="21"/>
+      <c r="D63" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="64" ht="18.75" customHeight="1">
-      <c r="D64" s="21" t="s">
-        <v>111</v>
-      </c>
+      <c r="D64" s="21"/>
     </row>
     <row r="65" ht="18.75" customHeight="1">
-      <c r="D65" s="22" t="s">
+      <c r="D65" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" ht="18.75" customHeight="1">
+      <c r="D66" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="22" t="s">
+      <c r="E66" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="F66" s="22" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="66" ht="18.75" customHeight="1">
-      <c r="D66" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E66" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="67" ht="18.75" customHeight="1">
@@ -2819,7 +2843,7 @@
         <v>114</v>
       </c>
       <c r="E67" s="24">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F67" s="24" t="s">
         <v>115</v>
@@ -2830,7 +2854,7 @@
         <v>116</v>
       </c>
       <c r="E68" s="24">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F68" s="24" t="s">
         <v>117</v>
@@ -2841,7 +2865,7 @@
         <v>118</v>
       </c>
       <c r="E69" s="24">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F69" s="24" t="s">
         <v>119</v>
@@ -2852,38 +2876,38 @@
         <v>120</v>
       </c>
       <c r="E70" s="24">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F70" s="24" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="71" ht="18.75" customHeight="1"/>
-    <row r="72" ht="18.75" customHeight="1">
-      <c r="D72" s="21" t="s">
+    <row r="71" ht="18.75" customHeight="1">
+      <c r="D71" s="23" t="s">
         <v>122</v>
       </c>
-    </row>
+      <c r="E71" s="24">
+        <v>5.0</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" ht="18.75" customHeight="1"/>
     <row r="73" ht="18.75" customHeight="1">
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" ht="18.75" customHeight="1">
+      <c r="D74" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="22" t="s">
+      <c r="E74" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="22" t="s">
+      <c r="F74" s="22" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="74" ht="18.75" customHeight="1">
-      <c r="D74" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E74" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F74" s="24" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="75" ht="18.75" customHeight="1">
@@ -2891,7 +2915,7 @@
         <v>125</v>
       </c>
       <c r="E75" s="24">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F75" s="24" t="s">
         <v>126</v>
@@ -2902,13 +2926,23 @@
         <v>127</v>
       </c>
       <c r="E76" s="24">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F76" s="24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="77" ht="18.75" customHeight="1"/>
+    <row r="77" ht="18.75" customHeight="1">
+      <c r="D77" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E77" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
     <row r="78" ht="18.75" customHeight="1"/>
     <row r="79" ht="18.75" customHeight="1"/>
     <row r="80" ht="18.75" customHeight="1"/>
@@ -3832,6 +3866,7 @@
     <row r="998" ht="18.75" customHeight="1"/>
     <row r="999" ht="18.75" customHeight="1"/>
     <row r="1000" ht="18.75" customHeight="1"/>
+    <row r="1001" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C2"/>
